--- a/biology/Histoire de la zoologie et de la botanique/Georges_François_Reuter/Georges_François_Reuter.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Georges_François_Reuter/Georges_François_Reuter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Georges_Fran%C3%A7ois_Reuter</t>
+          <t>Georges_François_Reuter</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Georges François Reuter est un naturaliste français, né le 30 novembre 1805 à Paris et mort le 23 mai 1872 à Genève.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Georges_Fran%C3%A7ois_Reuter</t>
+          <t>Georges_François_Reuter</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est d'abord graveur à Paris, où il suit les cours d'Antoine-Laurent de Jussieu. En 1826, il devient graveur à Genève, dans l'atelier de M. Rochat et continue à se passionner pour la botanique. En 1832, il publie, à l'instigation d'Augustin Pyramus de Candolle, la première édition du Catalogue des plantes vasculaires du canton de Genève[1]. L'année suivante, il devient conservateur de l'herbier de Candolle, position qu'il conserve jusqu'en 1842, époque à laquelle il part explorer la flore de l'Espagne centrale.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est d'abord graveur à Paris, où il suit les cours d'Antoine-Laurent de Jussieu. En 1826, il devient graveur à Genève, dans l'atelier de M. Rochat et continue à se passionner pour la botanique. En 1832, il publie, à l'instigation d'Augustin Pyramus de Candolle, la première édition du Catalogue des plantes vasculaires du canton de Genève. L'année suivante, il devient conservateur de l'herbier de Candolle, position qu'il conserve jusqu'en 1842, époque à laquelle il part explorer la flore de l'Espagne centrale.
 De retour à Genève, il devient conservateur de l'herbier de Pierre Edmond Boissier, un poste qu'il conservera jusqu'à sa mort.
 Il dirige le jardin botanique de Genève à partir de 1849. Henri Margot (1807-1894) et Reuter publient en 1838, un Essai d’une flore de l’île de Zante. Reuter a collaboré avec de très nombreux amateurs de botanique de Genève.
 </t>
